--- a/04_Results/01_Paper/01_Literature/03_Literature_review/Literature_review.xlsx
+++ b/04_Results/01_Paper/01_Literature/03_Literature_review/Literature_review.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MaxFranke/Desktop/05_Big Data Analytics/04_Classes/04 SP:Term2/CIS-627 CAPSTONE/News-Classification/04_Results/01_Paper/01_Literature/03_Literature_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C738D49-5DF6-F64B-8714-E3EDA054CD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D829D3-63AA-654D-9631-77D666079976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{2CA0A33E-5E05-624D-AB2D-7F8128BB0633}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="literature_review" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -217,9 +217,6 @@
     <t>86,539 tweets, company-specific information from Reuters, Alpha- Vantage will be used to create company-specific corpora</t>
   </si>
   <si>
-    <t>results show that the top performing classi- fiers, in respect to their MCC score, are LR and SVM, both of which perform significantly better when considering additional features granted by the company corpora.</t>
-  </si>
-  <si>
     <t>Logistic Regression, K-Nearest Neighbours, Support Vector Machine, Naïve Bayes, Decision Tree, and Random Forest classifiers</t>
   </si>
   <si>
@@ -238,10 +235,13 @@
     <t>6888 stock market news articles were collected from YAHOO!News</t>
   </si>
   <si>
-    <t>A contextual entropy model is proposed to expand a set of seed words by discovering similar emotion words and their corre- sponding intensities from online stock market news articles.</t>
-  </si>
-  <si>
     <t>the use of the expanded emotion words improved classification performance, which was further improved by incorporat- ing their corresponding intensities.</t>
+  </si>
+  <si>
+    <t>results show that the top performing classifiers, in respect to their MCC score, are LR and SVM, both of which perform significantly better when considering additional features granted by the company corpora.</t>
+  </si>
+  <si>
+    <t>A contextual entropy model is proposed to expand a set of seed words by discovering similar emotion words and their corresponding intensities from online stock market news articles.</t>
   </si>
 </sst>
 </file>
@@ -629,9 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2522F87-5820-2B4A-B367-98F9083F9C8F}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -872,10 +871,10 @@
         <v>58</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>59</v>
@@ -889,25 +888,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -915,5 +914,6 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>